--- a/knowledge-base/excel-postings/initiatives/FY 22/s1.w7/w7-workstream.initiatives.a6i.xlsx
+++ b/knowledge-base/excel-postings/initiatives/FY 22/s1.w7/w7-workstream.initiatives.a6i.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleja\Documents\Code\chateauclaudia-labs\apodeixi\test-knowledge-base\excel-postings\initiatives\FY 22\s1.w7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleja\Documents\Code\chateauclaudia-labs\apodeixi\test_db\knowledge-base\excel-postings\initiatives\FY 22\s1.w7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{702C7909-DD03-4D9C-91DB-726DF22B7B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A540C95-B783-42EE-9AA5-5B811304A313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" xr2:uid="{1C3C717C-D18E-4132-9B42-D7001AA1AE8F}"/>
   </bookViews>
@@ -67,9 +67,6 @@
     <t>scenario</t>
   </si>
   <si>
-    <t>environment</t>
-  </si>
-  <si>
     <t>Production</t>
   </si>
   <si>
@@ -476,6 +473,9 @@
   </si>
   <si>
     <t>B2:M30</t>
+  </si>
+  <si>
+    <t>knowledgeBase</t>
   </si>
 </sst>
 </file>
@@ -1084,7 +1084,7 @@
   <dimension ref="B1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1101,10 +1101,10 @@
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B2" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="45" t="s">
         <v>144</v>
-      </c>
-      <c r="C2" s="45" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.45">
@@ -1144,100 +1144,100 @@
         <v>9</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B8" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B9" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>132</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B10" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B11" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B12" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B13" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B14" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B15" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B16" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>13</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B18" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B19" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" s="10">
         <v>44315</v>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B20" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -1282,7 +1282,7 @@
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -1293,44 +1293,44 @@
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="E2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="F2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="H2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>24</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="J2" s="14"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B3" s="8"/>
       <c r="C3" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="20" t="s">
         <v>26</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>27</v>
       </c>
       <c r="E3" s="21">
         <v>44530</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G3" s="21">
         <v>44439</v>
@@ -1344,7 +1344,7 @@
       <c r="D4" s="20"/>
       <c r="E4" s="21"/>
       <c r="F4" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G4" s="21">
         <v>44530</v>
@@ -1366,13 +1366,13 @@
       <c r="B6" s="8"/>
       <c r="C6" s="19"/>
       <c r="D6" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6" s="21">
         <v>44712</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G6" s="21">
         <v>44620</v>
@@ -1394,13 +1394,13 @@
       <c r="B8" s="8"/>
       <c r="C8" s="19"/>
       <c r="D8" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" s="21">
         <v>45077</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G8" s="21">
         <v>45077</v>
@@ -1412,13 +1412,13 @@
       <c r="B9" s="8"/>
       <c r="C9" s="19"/>
       <c r="D9" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" s="21">
         <v>45443</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G9" s="21">
         <v>45443</v>
@@ -1439,16 +1439,16 @@
     <row r="11" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B11" s="8"/>
       <c r="C11" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="20" t="s">
         <v>36</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>37</v>
       </c>
       <c r="E11" s="21">
         <v>44832</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G11" s="21">
         <v>44530</v>
@@ -1462,7 +1462,7 @@
       <c r="D12" s="20"/>
       <c r="E12" s="21"/>
       <c r="F12" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G12" s="21">
         <v>44620</v>
@@ -1476,7 +1476,7 @@
       <c r="D13" s="20"/>
       <c r="E13" s="21"/>
       <c r="F13" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G13" s="21">
         <v>44712</v>
@@ -1488,13 +1488,13 @@
       <c r="B14" s="8"/>
       <c r="C14" s="19"/>
       <c r="D14" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E14" s="21">
         <v>44985</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G14" s="21">
         <v>44712</v>
@@ -1508,7 +1508,7 @@
       <c r="D15" s="20"/>
       <c r="E15" s="21"/>
       <c r="F15" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G15" s="21">
         <v>44865</v>
@@ -1522,7 +1522,7 @@
       <c r="D16" s="20"/>
       <c r="E16" s="21"/>
       <c r="F16" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G16" s="21">
         <v>45105</v>
@@ -1534,13 +1534,13 @@
       <c r="B17" s="8"/>
       <c r="C17" s="19"/>
       <c r="D17" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E17" s="21">
         <v>44985</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G17" s="21">
         <v>44712</v>
@@ -1554,7 +1554,7 @@
       <c r="D18" s="20"/>
       <c r="E18" s="21"/>
       <c r="F18" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G18" s="21">
         <v>44865</v>
@@ -1568,7 +1568,7 @@
       <c r="D19" s="20"/>
       <c r="E19" s="21"/>
       <c r="F19" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G19" s="21">
         <v>45105</v>
@@ -1580,13 +1580,13 @@
       <c r="B20" s="8"/>
       <c r="C20" s="19"/>
       <c r="D20" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E20" s="21">
         <v>45077</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G20" s="21">
         <v>45077</v>
@@ -1598,13 +1598,13 @@
       <c r="B21" s="8"/>
       <c r="C21" s="19"/>
       <c r="D21" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E21" s="21">
         <v>45443</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G21" s="21">
         <v>45443</v>
@@ -1625,16 +1625,16 @@
     <row r="23" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B23" s="8"/>
       <c r="C23" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="20" t="s">
         <v>51</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>52</v>
       </c>
       <c r="E23" s="21">
         <v>44467</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G23" s="21">
         <v>44500</v>
@@ -1646,13 +1646,13 @@
       <c r="B24" s="8"/>
       <c r="C24" s="19"/>
       <c r="D24" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E24" s="21">
         <v>44712</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G24" s="21">
         <v>44530</v>
@@ -1666,7 +1666,7 @@
       <c r="D25" s="20"/>
       <c r="E25" s="21"/>
       <c r="F25" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G25" s="21">
         <v>44712</v>
@@ -1678,7 +1678,7 @@
       <c r="B26" s="8"/>
       <c r="C26" s="19"/>
       <c r="D26" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E26" s="21">
         <v>45077</v>
@@ -1692,7 +1692,7 @@
       <c r="B27" s="8"/>
       <c r="C27" s="19"/>
       <c r="D27" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E27" s="21">
         <v>45443</v>
@@ -1715,22 +1715,22 @@
     <row r="29" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B29" s="8"/>
       <c r="C29" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="20" t="s">
         <v>59</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>60</v>
       </c>
       <c r="E29" s="24">
         <v>45079</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G29" s="24">
         <v>44588</v>
       </c>
       <c r="H29" s="28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I29" s="20"/>
     </row>
@@ -1740,7 +1740,7 @@
       <c r="D30" s="20"/>
       <c r="E30" s="21"/>
       <c r="F30" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G30" s="21">
         <v>44647</v>
@@ -1754,7 +1754,7 @@
       <c r="D31" s="20"/>
       <c r="E31" s="21"/>
       <c r="F31" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G31" s="21">
         <v>45079</v>
@@ -1768,7 +1768,7 @@
       <c r="D32" s="20"/>
       <c r="E32" s="21"/>
       <c r="F32" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G32" s="21">
         <v>44561</v>
@@ -1780,7 +1780,7 @@
       <c r="B33" s="8"/>
       <c r="C33" s="19"/>
       <c r="D33" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E33" s="21">
         <v>44682</v>
@@ -1794,7 +1794,7 @@
       <c r="B34" s="8"/>
       <c r="C34" s="19"/>
       <c r="D34" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E34" s="21">
         <v>44774</v>
@@ -1808,7 +1808,7 @@
       <c r="B35" s="8"/>
       <c r="C35" s="19"/>
       <c r="D35" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E35" s="21">
         <v>45077</v>
@@ -1822,7 +1822,7 @@
       <c r="B36" s="8"/>
       <c r="C36" s="19"/>
       <c r="D36" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E36" s="21">
         <v>45443</v>
@@ -1865,20 +1865,20 @@
     <row r="40" spans="2:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B40" s="8"/>
       <c r="C40" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D40" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E40" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="E40" s="27" t="s">
+      <c r="F40" s="20" t="s">
         <v>70</v>
-      </c>
-      <c r="F40" s="20" t="s">
-        <v>71</v>
       </c>
       <c r="G40" s="21"/>
       <c r="H40" s="28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I40" s="20"/>
     </row>
@@ -1888,7 +1888,7 @@
       <c r="D41" s="19"/>
       <c r="E41" s="27"/>
       <c r="F41" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G41" s="21"/>
       <c r="H41" s="28">
@@ -1902,7 +1902,7 @@
       <c r="D42" s="19"/>
       <c r="E42" s="27"/>
       <c r="F42" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G42" s="21"/>
       <c r="H42" s="28">
@@ -2048,7 +2048,7 @@
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B1" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
@@ -2063,40 +2063,40 @@
     </row>
     <row r="2" spans="2:16" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B2" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="E2" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="F2" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="H2" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="J2" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="L2" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="M2" s="11" t="s">
         <v>86</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>87</v>
       </c>
       <c r="N2" s="33"/>
     </row>
@@ -2118,16 +2118,16 @@
     <row r="4" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B4" s="12"/>
       <c r="C4" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="E4" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="F4" s="12" t="s">
         <v>90</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>91</v>
       </c>
       <c r="G4" s="37"/>
       <c r="H4" s="34">
@@ -2144,7 +2144,7 @@
       </c>
       <c r="K4" s="12"/>
       <c r="L4" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M4" s="12"/>
       <c r="N4" s="33"/>
@@ -2152,16 +2152,16 @@
     <row r="5" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B5" s="12"/>
       <c r="C5" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D5" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>93</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>94</v>
       </c>
       <c r="G5" s="37"/>
       <c r="H5" s="34">
@@ -2178,7 +2178,7 @@
       </c>
       <c r="K5" s="12"/>
       <c r="L5" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M5" s="12"/>
       <c r="N5" s="33"/>
@@ -2201,16 +2201,16 @@
     <row r="7" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B7" s="12"/>
       <c r="C7" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E7" s="12" t="s">
+      <c r="F7" s="8" t="s">
         <v>96</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>97</v>
       </c>
       <c r="G7" s="32"/>
       <c r="H7" s="25">
@@ -2224,7 +2224,7 @@
       </c>
       <c r="K7" s="8"/>
       <c r="L7" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M7" s="26">
         <v>0.1</v>
@@ -2245,16 +2245,16 @@
     <row r="8" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B8" s="12"/>
       <c r="C8" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="G8" s="32"/>
       <c r="H8" s="25">
@@ -2268,7 +2268,7 @@
       </c>
       <c r="K8" s="8"/>
       <c r="L8" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M8" s="26">
         <v>0.1</v>
@@ -2289,14 +2289,14 @@
     <row r="9" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B9" s="12"/>
       <c r="C9" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G9" s="37"/>
       <c r="H9" s="26">
@@ -2310,7 +2310,7 @@
       </c>
       <c r="K9" s="12"/>
       <c r="L9" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M9" s="26">
         <v>0.15</v>
@@ -2383,16 +2383,16 @@
     <row r="12" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B12" s="12"/>
       <c r="C12" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G12" s="37"/>
       <c r="H12" s="26">
@@ -2406,7 +2406,7 @@
       </c>
       <c r="K12" s="12"/>
       <c r="L12" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M12" s="26">
         <v>0.1</v>
@@ -2427,16 +2427,16 @@
     <row r="13" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B13" s="12"/>
       <c r="C13" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" s="15" t="s">
         <v>103</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>104</v>
       </c>
       <c r="G13" s="37"/>
       <c r="H13" s="26">
@@ -2450,7 +2450,7 @@
       </c>
       <c r="K13" s="12"/>
       <c r="L13" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M13" s="26">
         <v>0.1</v>
@@ -2471,16 +2471,16 @@
     <row r="14" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B14" s="12"/>
       <c r="C14" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G14" s="37"/>
       <c r="H14" s="26">
@@ -2494,7 +2494,7 @@
       </c>
       <c r="K14" s="12"/>
       <c r="L14" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M14" s="26">
         <v>0.1</v>
@@ -2515,16 +2515,16 @@
     <row r="15" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B15" s="12"/>
       <c r="C15" s="29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G15" s="38">
         <v>120</v>
@@ -2540,7 +2540,7 @@
       </c>
       <c r="K15" s="30"/>
       <c r="L15" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M15" s="26">
         <v>0.1</v>
@@ -2561,16 +2561,16 @@
     <row r="16" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B16" s="12"/>
       <c r="C16" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G16" s="32"/>
       <c r="H16" s="26">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="K16" s="8"/>
       <c r="L16" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M16" s="26">
         <v>0.15</v>
@@ -2657,16 +2657,16 @@
     <row r="19" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B19" s="12"/>
       <c r="C19" s="39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E19" s="40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F19" s="40" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G19" s="41"/>
       <c r="H19" s="42">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="K19" s="40"/>
       <c r="L19" s="40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M19" s="43">
         <v>0.06</v>
@@ -2701,16 +2701,16 @@
     <row r="20" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B20" s="8"/>
       <c r="C20" s="39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D20" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E20" s="40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F20" s="44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G20" s="41"/>
       <c r="H20" s="42">
@@ -2724,7 +2724,7 @@
       </c>
       <c r="K20" s="40"/>
       <c r="L20" s="40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M20" s="43">
         <v>0.12</v>
@@ -2797,16 +2797,16 @@
     <row r="23" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B23" s="8"/>
       <c r="C23" s="39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D23" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E23" s="40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F23" s="44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G23" s="41"/>
       <c r="H23" s="42">
@@ -2820,7 +2820,7 @@
       </c>
       <c r="K23" s="40"/>
       <c r="L23" s="40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M23" s="43">
         <v>0.12</v>
@@ -2841,16 +2841,16 @@
     <row r="24" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B24" s="8"/>
       <c r="C24" s="39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D24" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E24" s="40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F24" s="44" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G24" s="41"/>
       <c r="H24" s="42">
@@ -2864,7 +2864,7 @@
       </c>
       <c r="K24" s="40"/>
       <c r="L24" s="40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M24" s="43">
         <v>0.12</v>
@@ -2937,16 +2937,16 @@
     <row r="27" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B27" s="8"/>
       <c r="C27" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F27" s="15" t="s">
         <v>112</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>113</v>
       </c>
       <c r="G27" s="37"/>
       <c r="H27" s="26">
@@ -2960,7 +2960,7 @@
       </c>
       <c r="K27" s="12"/>
       <c r="L27" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M27" s="26">
         <v>0.1</v>
@@ -2981,16 +2981,16 @@
     <row r="28" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B28" s="8"/>
       <c r="C28" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F28" s="15" t="s">
         <v>114</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>115</v>
       </c>
       <c r="G28" s="37"/>
       <c r="H28" s="26">
@@ -3004,7 +3004,7 @@
       </c>
       <c r="K28" s="12"/>
       <c r="L28" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M28" s="26">
         <v>0.1</v>
@@ -3025,16 +3025,16 @@
     <row r="29" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B29" s="8"/>
       <c r="C29" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G29" s="32"/>
       <c r="H29" s="26">
@@ -3048,7 +3048,7 @@
       </c>
       <c r="K29" s="8"/>
       <c r="L29" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M29" s="26">
         <v>0.12</v>
@@ -3069,16 +3069,16 @@
     <row r="30" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B30" s="8"/>
       <c r="C30" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G30" s="32"/>
       <c r="H30" s="26">
@@ -3092,7 +3092,7 @@
       </c>
       <c r="K30" s="8"/>
       <c r="L30" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M30" s="26">
         <v>0.12</v>
@@ -3115,7 +3115,7 @@
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.45">
       <c r="L32" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M32" s="36">
         <f>SUMIF($D$7:$D$30,D5,$M$7:$M$30)</f>
@@ -3125,7 +3125,7 @@
     </row>
     <row r="33" spans="12:14" x14ac:dyDescent="0.45">
       <c r="L33" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M33" s="36">
         <f>SUMIF($D$7:$D$30,D4,$M$7:$M$30)</f>
@@ -3140,12 +3140,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="66517581-92a9-4cb0-981f-3f6c827c3504">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3360,23 +3365,28 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="66517581-92a9-4cb0-981f-3f6c827c3504">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69F59924-779F-45B5-BAB0-46EB91D29C8C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD6CD186-1AFD-40DE-A756-562BEC0234AA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="b2bdfb7b-0970-4105-9d2d-c277e29370c2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="926ebc5c-f0cd-4127-a899-52ea4d1e07aa"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="66517581-92a9-4cb0-981f-3f6c827c3504"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3401,19 +3411,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD6CD186-1AFD-40DE-A756-562BEC0234AA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69F59924-779F-45B5-BAB0-46EB91D29C8C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="b2bdfb7b-0970-4105-9d2d-c277e29370c2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="926ebc5c-f0cd-4127-a899-52ea4d1e07aa"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="66517581-92a9-4cb0-981f-3f6c827c3504"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>